--- a/HLR 1.xlsx
+++ b/HLR 1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAYAG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C19665-9CBC-472A-9BC6-F823D8589403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD37EBA-1E79-4EC9-B607-959AE8F6ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F912A72-8DD0-4479-93B5-7CF7245F4031}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="1000a about menu new page" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
   <si>
     <t xml:space="preserve">Functionality ID </t>
   </si>
@@ -218,54 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">check all item menu </t>
-  </si>
-  <si>
-    <t>check products tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while clicking on product tab all options are working  properly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">check pricing tab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while clicking on that tab it is working </t>
-  </si>
-  <si>
-    <t>check developers tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check saucelabs  icon </t>
-  </si>
-  <si>
-    <t>while clicking on that icon reopening aboutmenu page (refresh about menu page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check enterprise tab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">check resourses tab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while clicking on that tab all options are  working </t>
-  </si>
-  <si>
-    <t>while clicking on about menu to open new page with sign in page (about menu page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check sign in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while clicking on that tab opening new page open not letting to sign in </t>
-  </si>
-  <si>
-    <t>same as 1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check request demo button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while clicking on that button it is working </t>
   </si>
   <si>
     <t>while clicking  on filteration option and all options are not working properly.</t>
@@ -388,45 +339,6 @@
     <t>same as fun id 803</t>
   </si>
   <si>
-    <t>1000a</t>
-  </si>
-  <si>
-    <t>checking new page about menu</t>
-  </si>
-  <si>
-    <t>sheet no 2name 1000a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fun id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fun name </t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>check search icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check website buttons of body of websites </t>
-  </si>
-  <si>
-    <t>all buttons and function on main body is working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check footer </t>
-  </si>
-  <si>
-    <t>all menus above footer and  social media icons and  buttons on rightside corner footer are working well</t>
-  </si>
-  <si>
-    <t>No option to go back previous url page</t>
-  </si>
-  <si>
-    <t>same as 801 and 802</t>
-  </si>
-  <si>
     <r>
       <t>check login button(</t>
     </r>
@@ -453,9 +365,6 @@
     </r>
   </si>
   <si>
-    <t>same as 1000a sheet 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">that button is not working properly. Sometimes open some random product details and sometime go back to product page.and also slow </t>
   </si>
   <si>
@@ -493,13 +402,16 @@
   </si>
   <si>
     <t>while clicking on that menu it is working.</t>
+  </si>
+  <si>
+    <t>while clicking on about menu to open another website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,14 +421,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -573,13 +477,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3649BF-78E3-4357-9784-DB1B1BF3A6E1}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -935,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1067,7 +970,7 @@
         <v>406</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1247,7 +1150,7 @@
         <v>701</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>57</v>
@@ -1269,7 +1172,7 @@
         <v>802</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -1298,806 +1201,580 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>1000</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
+      <c r="A40" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>1100</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
+      <c r="A41" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>1101</v>
+        <v>1200</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>1201</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
+      <c r="A44" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1204</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>79</v>
+      <c r="A47" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>1216</v>
+        <v>1300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>1302</v>
+        <v>1400</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>1401</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>1500</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>4</v>
+      <c r="A66" s="2">
+        <v>1501</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>1501</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>114</v>
+      <c r="A67" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>1503</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
+      <c r="A70" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
-        <v>1800</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
+      <c r="A72" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>1801</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>15</v>
+      <c r="A73" s="4">
+        <v>1901</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>1900</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>17</v>
+      <c r="A74" s="4">
+        <v>1902</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
-        <v>1901</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>109</v>
+      <c r="A75" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
-        <v>1902</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>110</v>
+      <c r="A76" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>1904</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>25</v>
+      <c r="A78" s="4">
+        <v>1906</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
-        <v>1906</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>112</v>
+      <c r="A80" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>115</v>
+        <v>34</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>118</v>
+        <v>45</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>1916</v>
+        <v>2000</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>1917</v>
+        <v>2001</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>2001</v>
+        <v>2100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>2002</v>
+        <v>2101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>2100</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>2101</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DCBD53-BAF0-4C1B-BF13-1D55CDD0A893}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="87.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>